--- a/data/lab1-commands.xlsx
+++ b/data/lab1-commands.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\books\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\books-econometrics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E55C01-F0F7-4FC8-BD2A-BA91715F1945}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A9118F-C6AC-4BE1-8A30-E07BEAF37D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7395" xr2:uid="{3998A5B6-CF86-401F-9F26-DB4736DF1124}"/>
+    <workbookView xWindow="-9885" yWindow="8002" windowWidth="24495" windowHeight="15795" xr2:uid="{3998A5B6-CF86-401F-9F26-DB4736DF1124}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -379,10 +379,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$|x|$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$X_{t-n}$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -407,10 +403,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密度\概率函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>`@cchisq(x,f)`</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -623,10 +615,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$\mathbf{|X|}$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>得到方阵$\mathbf{X}$的行列式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -692,6 +680,18 @@
   </si>
   <si>
     <t>$3.14159 \cdots$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密度;概率函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\mathbf{\mid{X}\mid}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\mid{X}\mid$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -750,7 +750,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -766,7 +766,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1065,21 +1065,21 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1192,10 +1192,10 @@
         <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1209,10 +1209,10 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1226,10 +1226,10 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1243,10 +1243,10 @@
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1260,10 +1260,10 @@
         <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1277,10 +1277,10 @@
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1322,10 +1322,10 @@
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1356,10 +1356,10 @@
         <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1367,16 +1367,16 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1628,389 +1628,389 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" t="s">
         <v>95</v>
       </c>
-      <c r="C35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" t="s">
-        <v>97</v>
-      </c>
       <c r="E35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E39" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" t="s">
         <v>113</v>
       </c>
-      <c r="E42" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E44" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E46" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" t="s">
         <v>129</v>
       </c>
-      <c r="C47" t="s">
-        <v>135</v>
-      </c>
-      <c r="D47" t="s">
-        <v>130</v>
-      </c>
-      <c r="E47" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E48" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D49" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E49" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" t="s">
         <v>138</v>
       </c>
-      <c r="C50" t="s">
-        <v>140</v>
-      </c>
       <c r="D50" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E50" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" t="s">
         <v>142</v>
       </c>
-      <c r="D51" t="s">
-        <v>143</v>
-      </c>
-      <c r="E51" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C52" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" t="s">
         <v>145</v>
       </c>
-      <c r="D52" t="s">
-        <v>146</v>
-      </c>
-      <c r="E52" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E53" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C54" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D54" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C55" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D55" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E55" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C56" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D56" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E56" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C57" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D57" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
